--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_APD.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_APD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Change Start page</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Automatable</t>
@@ -159,17 +156,14 @@
 validate4;</t>
   </si>
   <si>
-    <t><![CDATA[wait(3);
+    <t>wait(3);
 PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,<StartPage value="http://127.0.0.1:8082/app/" name="Menu"/>);
-ChangeConfigxml(Configuration,WebServer,<WebServer>endl  <Enabled VALUE="1"/>endl  <Port VALUE="8082"/>endl  <WebFolder VALUE="\\auto\\RE_2.2\"/>endl  <Public VALUE="1"/>endl</WebServer>endl);
-PushConfigxml;]]></t>
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+PushConfigxml;</t>
   </si>
   <si>
     <t>RE2.2 APD</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>validate1
@@ -284,7 +278,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -820,19 +813,19 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -846,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -876,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -888,15 +881,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="192" thickBot="1">
@@ -911,21 +902,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="192" thickBot="1">
@@ -940,21 +929,19 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="192" thickBot="1">
@@ -969,21 +956,19 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="192" thickBot="1">
@@ -998,21 +983,19 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="192" thickBot="1">
@@ -1027,21 +1010,19 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="192" thickBot="1">
@@ -1056,21 +1037,19 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
   </sheetData>
@@ -1089,9 +1068,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
